--- a/vertx-pin/zero-jet/src/main/resources/plugin/jet/oob/cab/system.job.xlsx
+++ b/vertx-pin/zero-jet/src/main/resources/plugin/jet/oob/cab/system.job.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-jet/src/main/resources/plugin/jet/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAB4199-BB1F-B64E-A752-444A7BC2846F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9AFD94-A831-4F48-A26D-B4E69BE0E544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39120" yWindow="-7280" windowWidth="28960" windowHeight="20260" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -391,7 +391,7 @@
     <t>607feb8a-e4d8-4302-8282-fb1a930f4687</t>
   </si>
   <si>
-    <t>JSON:plugin/ke/rule.form/x-job.json</t>
+    <t>JSON:plugin/ke/rule.form/i.job.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,12 +640,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -660,10 +654,16 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1033,14 +1033,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="22" customHeight="1"/>
     <row r="3" spans="1:9">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1089,7 +1089,7 @@
       <c r="C6" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="32" t="s">
         <v>108</v>
       </c>
       <c r="E6" s="3"/>
@@ -1106,7 +1106,7 @@
       <c r="C7" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="32" t="s">
         <v>108</v>
       </c>
       <c r="E7" s="3"/>
@@ -1120,11 +1120,11 @@
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="I9" s="4"/>
@@ -1205,14 +1205,14 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:9" s="32" customFormat="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
+    <row r="14" spans="1:9" s="30" customFormat="1">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="31"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:9" ht="22" customHeight="1"/>
     <row r="18" spans="1:11">
@@ -1500,17 +1500,17 @@
       <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="5" t="s">
